--- a/src/test/resources/test_data.xlsx
+++ b/src/test/resources/test_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\THCT-course-template\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E788B8-472B-427A-A177-40E24CE28923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2214E779-EA0B-4F25-89C3-9805EE92E106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>user1</t>
+  </si>
+  <si>
+    <t>oemgalul</t>
+  </si>
+  <si>
+    <t>wut</t>
+  </si>
+  <si>
+    <t>Test ID</t>
   </si>
 </sst>
 </file>
@@ -81,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,41 +386,75 @@
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>TEXT(ROW()-1,"#")</f>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A6" si="0">TEXT(ROW()-1,"#")</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
